--- a/Montana/Regulatory/MTre_Regulatory Schema Mapping to WaDE.xlsx
+++ b/Montana/Regulatory/MTre_Regulatory Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\Regulatory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDAFC59-3742-4FA6-85C1-D4A3A6321542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BE5507-C639-4715-8E0F-4667CE055CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="165">
   <si>
     <t>Item</t>
   </si>
@@ -536,6 +536,9 @@
   <si>
     <t>MTre_RO + OBJECTID</t>
   </si>
+  <si>
+    <t>https://dnrc.mt.gov/Conservation/Conservation-Programs/Conservation-Districts/</t>
+  </si>
 </sst>
 </file>
 
@@ -873,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1234,6 +1237,9 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1551,9 +1557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2752,9 +2758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G19:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,7 +3078,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>135</v>
       </c>
@@ -3088,8 +3094,8 @@
       <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>162</v>
+      <c r="F10" s="124" t="s">
+        <v>164</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>28</v>
@@ -3276,8 +3282,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:L12">
     <sortCondition ref="A4:A12"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{3C7F6D39-E62A-4E05-81D7-48DDFE62874E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
